--- a/xlsx_data/period_stock_list.xlsx
+++ b/xlsx_data/period_stock_list.xlsx
@@ -545,7 +545,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BNA</t>
+          <t>TLD</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BSI</t>
+          <t>CII</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -759,7 +759,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>TCO</t>
+          <t>TNH</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -866,7 +866,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>NNC</t>
+          <t>CSM</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -973,7 +973,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>API</t>
+          <t>KDH</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1080,7 +1080,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PHR</t>
+          <t>TPB</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1187,7 +1187,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PLP</t>
+          <t>MWG</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1294,7 +1294,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>NVT</t>
+          <t>DTA</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1401,7 +1401,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>APC</t>
+          <t>HTT</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1508,7 +1508,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AGG</t>
+          <t>ACV</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1615,7 +1615,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>VNM</t>
+          <t>BTS</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1722,7 +1722,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>GEG</t>
+          <t>VAB</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1829,7 +1829,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>DTE</t>
+          <t>PDV</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1936,7 +1936,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>VC9</t>
+          <t>ACB</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2043,7 +2043,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>AGR</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2150,7 +2150,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>NHP</t>
+          <t>VEC</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2257,7 +2257,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>MWG</t>
+          <t>SVN</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2364,7 +2364,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>HPX</t>
+          <t>PHR</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2471,7 +2471,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>LMH</t>
+          <t>SJF</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2578,7 +2578,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BGE</t>
+          <t>SWC</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2685,7 +2685,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>KLF</t>
+          <t>HIO</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2792,7 +2792,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>VC7</t>
+          <t>PDR</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2899,7 +2899,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>TDM</t>
+          <t>TLG</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3006,7 +3006,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>PGS</t>
+          <t>HOM</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3113,7 +3113,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>NSH</t>
+          <t>TNS</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3220,7 +3220,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>MIG</t>
+          <t>GMD</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -3327,7 +3327,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>VE9</t>
+          <t>NVT</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -3434,7 +3434,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>HTI</t>
+          <t>AFX</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3541,7 +3541,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>TSA</t>
+          <t>VTK</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -3648,7 +3648,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>VNR</t>
+          <t>BCE</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -3755,7 +3755,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>DIG</t>
+          <t>PRE</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -3862,7 +3862,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SSB</t>
+          <t>TCD</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -3969,7 +3969,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ROS</t>
+          <t>PVI</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4076,7 +4076,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SD6</t>
+          <t>VST</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -4183,7 +4183,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CDO</t>
+          <t>HND</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -4290,7 +4290,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PFL</t>
+          <t>DBT</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -4397,7 +4397,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>VNG</t>
+          <t>TDP</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -4504,7 +4504,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BVS</t>
+          <t>KHG</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -4611,7 +4611,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>DNM</t>
+          <t>NAG</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -4718,7 +4718,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>AMS</t>
+          <t>VNM</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -4825,7 +4825,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>VAB</t>
+          <t>CSV</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -4932,7 +4932,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>PGT</t>
+          <t>VC2</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -5039,7 +5039,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>HD6</t>
+          <t>ITS</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -5146,7 +5146,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>HHG</t>
+          <t>BWE</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -5253,7 +5253,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>NAF</t>
+          <t>HNM</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -5360,7 +5360,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ILB</t>
+          <t>PTB</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -5467,7 +5467,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>HKB</t>
+          <t>SSB</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -5574,7 +5574,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>C47</t>
+          <t>SCG</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -5681,7 +5681,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>C4G</t>
+          <t>LPB</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -5788,7 +5788,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>GIC</t>
+          <t>MCG</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -5895,7 +5895,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>CTD</t>
+          <t>VTZ</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -6002,7 +6002,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>DVP</t>
+          <t>PVB</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -6109,7 +6109,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>HTT</t>
+          <t>PSH</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -6216,7 +6216,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>KSH</t>
+          <t>HPG</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -6323,7 +6323,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>KHG</t>
+          <t>HKB</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -6430,7 +6430,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>NDX</t>
+          <t>VJC</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -6537,7 +6537,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>PGN</t>
+          <t>APS</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -6644,7 +6644,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>HAC</t>
+          <t>HUB</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -6751,7 +6751,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BII</t>
+          <t>QNS</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -6858,7 +6858,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ABW</t>
+          <t>PGI</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -6965,7 +6965,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>APS</t>
+          <t>NHP</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -7072,7 +7072,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>PPT</t>
+          <t>TA9</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -7179,7 +7179,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>CDC</t>
+          <t>LHC</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -7286,7 +7286,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>MST</t>
+          <t>IMP</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -7393,7 +7393,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>PPH</t>
+          <t>HSL</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -7500,7 +7500,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>FOX</t>
+          <t>PVS</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -7607,7 +7607,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BSR</t>
+          <t>PVC</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -7714,7 +7714,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>MBB</t>
+          <t>BSI</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -7821,7 +7821,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>SD5</t>
+          <t>VLB</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -7928,7 +7928,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>LHC</t>
+          <t>BVG</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -8035,7 +8035,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>TDG</t>
+          <t>DGT</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -8142,7 +8142,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>CSC</t>
+          <t>SHN</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -8249,7 +8249,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>VGG</t>
+          <t>TDM</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -8356,7 +8356,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>VIB</t>
+          <t>SFG</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -8463,7 +8463,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>HSV</t>
+          <t>BOT</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -8570,7 +8570,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>BID</t>
+          <t>HUT</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -8677,7 +8677,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>CSV</t>
+          <t>VC3</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -8784,7 +8784,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>CSI</t>
+          <t>DVP</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -8891,7 +8891,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>HSG</t>
+          <t>TV3</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -8998,7 +8998,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>KBC</t>
+          <t>FIR</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -9105,7 +9105,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>PIV</t>
+          <t>DDG</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -9212,7 +9212,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>CVT</t>
+          <t>PSI</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -9319,7 +9319,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>DL1</t>
+          <t>PVT</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -9426,7 +9426,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>GEX</t>
+          <t>ANV</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -9533,7 +9533,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>VOS</t>
+          <t>SDP</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -9640,7 +9640,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>SVD</t>
+          <t>HNG</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -9747,7 +9747,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>HT1</t>
+          <t>VTR</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -9854,7 +9854,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>PAS</t>
+          <t>CRE</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -9961,7 +9961,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>DSE</t>
+          <t>VKC</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -10068,7 +10068,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>TNS</t>
+          <t>ITQ</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -10175,7 +10175,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>HDC</t>
+          <t>PC1</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -10282,7 +10282,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>VHC</t>
+          <t>MPC</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -10389,7 +10389,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>DHC</t>
+          <t>G36</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -10496,7 +10496,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>SRB</t>
+          <t>VOC</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -10603,7 +10603,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>VIT</t>
+          <t>THD</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -10710,7 +10710,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>HII</t>
+          <t>MPT</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -10817,7 +10817,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>KDM</t>
+          <t>VPB</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -10924,7 +10924,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>PVB</t>
+          <t>TVD</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -11031,7 +11031,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>NCT</t>
+          <t>PCG</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -11138,7 +11138,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>VGS</t>
+          <t>SMC</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -11245,7 +11245,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>HOM</t>
+          <t>AST</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -11352,7 +11352,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>TNT</t>
+          <t>HQC</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -11459,7 +11459,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>DXG</t>
+          <t>PTL</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -11566,7 +11566,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>FRT</t>
+          <t>CSI</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -11673,7 +11673,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>PVP</t>
+          <t>IVS</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -11780,7 +11780,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>HU4</t>
+          <t>VCG</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -11887,7 +11887,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>HND</t>
+          <t>BTP</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -11994,7 +11994,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>VNA</t>
+          <t>SRB</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -12101,7 +12101,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>VTR</t>
+          <t>HTN</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -12208,7 +12208,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>NBC</t>
+          <t>TLH</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -12315,7 +12315,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>HMR</t>
+          <t>PGB</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -12422,7 +12422,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>MTA</t>
+          <t>NHV</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -12529,7 +12529,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>HTG</t>
+          <t>NDT</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -12636,7 +12636,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>TLD</t>
+          <t>BCC</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -12743,7 +12743,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>BMS</t>
+          <t>LGL</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -12850,7 +12850,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>SVN</t>
+          <t>PXL</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -12957,7 +12957,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>TVN</t>
+          <t>FOC</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -13064,7 +13064,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>SHN</t>
+          <t>VC7</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -13171,7 +13171,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>BTN</t>
+          <t>DC4</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -13278,7 +13278,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>AMV</t>
+          <t>LCS</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -13385,7 +13385,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>BKG</t>
+          <t>HAC</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -13492,7 +13492,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>TVB</t>
+          <t>L14</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -13599,7 +13599,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>HNM</t>
+          <t>ELC</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -13706,7 +13706,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>HVN</t>
+          <t>CTI</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -13813,7 +13813,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>ABI</t>
+          <t>FLC</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -13920,7 +13920,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>VTV</t>
+          <t>HTG</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -14027,7 +14027,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>APG</t>
+          <t>SJD</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -14134,7 +14134,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>HAH</t>
+          <t>BDT</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -14241,7 +14241,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>DPS</t>
+          <t>NVB</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -14348,7 +14348,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>SMT</t>
+          <t>VLG</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -14455,7 +14455,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>PSB</t>
+          <t>FRT</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -14562,7 +14562,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>MCM</t>
+          <t>PMB</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -14669,7 +14669,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>HCM</t>
+          <t>EIN</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -14776,7 +14776,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>SGP</t>
+          <t>ACL</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -14883,7 +14883,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>VMD</t>
+          <t>VIG</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -14990,7 +14990,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>TTF</t>
+          <t>QNC</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -15097,7 +15097,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>VNB</t>
+          <t>NDX</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -15204,7 +15204,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>HHP</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -15311,7 +15311,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>AST</t>
+          <t>PPC</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -15418,7 +15418,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>MLS</t>
+          <t>LPT</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -15525,7 +15525,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>NTP</t>
+          <t>PPT</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -15632,7 +15632,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>L18</t>
+          <t>SBV</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -15739,7 +15739,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>LDG</t>
+          <t>TKG</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -15846,7 +15846,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>VIX</t>
+          <t>SDT</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -15953,7 +15953,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>GMH</t>
+          <t>MSR</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -16060,7 +16060,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>DBC</t>
+          <t>DRH</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -16167,7 +16167,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>CTP</t>
+          <t>SGP</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -16274,7 +16274,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>ADS</t>
+          <t>PHC</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -16381,7 +16381,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>TMT</t>
+          <t>BID</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -16488,7 +16488,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>HHV</t>
+          <t>HU4</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -16595,7 +16595,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>TVS</t>
+          <t>KOS</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -16702,7 +16702,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>PXL</t>
+          <t>MBG</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -16809,7 +16809,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>LAS</t>
+          <t>THG</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -16916,7 +16916,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>CTS</t>
+          <t>DID</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -17023,7 +17023,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>SAV</t>
+          <t>KVC</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -17130,7 +17130,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>GMD</t>
+          <t>DHA</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -17237,7 +17237,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>CRE</t>
+          <t>MLS</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -17344,7 +17344,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>TIS</t>
+          <t>TTN</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -17451,7 +17451,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>STB</t>
+          <t>VDS</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -17558,7 +17558,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>VCB</t>
+          <t>TIG</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -17665,7 +17665,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>BVG</t>
+          <t>DPR</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -17772,7 +17772,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>EVF</t>
+          <t>MTA</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -17879,7 +17879,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>TTA</t>
+          <t>KGM</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -17986,7 +17986,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>SGI</t>
+          <t>NTP</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -18093,7 +18093,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>DGW</t>
+          <t>TVS</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -18200,7 +18200,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>MBS</t>
+          <t>SCI</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -18307,7 +18307,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>DHM</t>
+          <t>VEA</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -18414,7 +18414,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>SBA</t>
+          <t>ASM</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -18521,7 +18521,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>HUT</t>
+          <t>IPA</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -18628,7 +18628,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>VST</t>
+          <t>MBS</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -18735,7 +18735,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>DHT</t>
+          <t>VNS</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -18842,7 +18842,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>PXS</t>
+          <t>VRG</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -18949,7 +18949,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>GKM</t>
+          <t>VLC</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -19056,7 +19056,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>SRA</t>
+          <t>TGG</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -19163,7 +19163,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>KKC</t>
+          <t>HVN</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -19270,7 +19270,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>PVD</t>
+          <t>LHG</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -19377,7 +19377,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>FLC</t>
+          <t>VMC</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -19484,7 +19484,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>SJM</t>
+          <t>SD5</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -19591,7 +19591,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>HTN</t>
+          <t>PBP</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -19698,7 +19698,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>PGB</t>
+          <t>HID</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -19805,7 +19805,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>DQC</t>
+          <t>VNG</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -19912,7 +19912,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>MCO</t>
+          <t>KSQ</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -20019,7 +20019,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>HID</t>
+          <t>OCH</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -20126,7 +20126,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>MPT</t>
+          <t>SD3</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -20233,7 +20233,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>TTZ</t>
+          <t>CSC</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -20340,7 +20340,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>FCN</t>
+          <t>DXP</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -20447,7 +20447,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>FIR</t>
+          <t>MFS</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -20554,7 +20554,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>ITC</t>
+          <t>VMD</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -20661,7 +20661,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>CTI</t>
+          <t>TCM</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -20768,7 +20768,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>GIL</t>
+          <t>SZC</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -20875,7 +20875,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>VCC</t>
+          <t>PAC</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -20982,7 +20982,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>ITQ</t>
+          <t>DBC</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -21089,7 +21089,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>VNS</t>
+          <t>PET</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -21196,7 +21196,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>BCR</t>
+          <t>VNA</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -21303,7 +21303,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>KPF</t>
+          <t>HHV</t>
         </is>
       </c>
       <c r="B196" t="inlineStr"/>
@@ -21406,7 +21406,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>ACC</t>
+          <t>HMR</t>
         </is>
       </c>
       <c r="B197" t="inlineStr"/>
@@ -21509,7 +21509,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>DZM</t>
+          <t>FTM</t>
         </is>
       </c>
       <c r="B198" t="inlineStr"/>
@@ -21612,7 +21612,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>VFG</t>
+          <t>NAF</t>
         </is>
       </c>
       <c r="B199" t="inlineStr"/>
@@ -21715,7 +21715,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>HCD</t>
+          <t>KLB</t>
         </is>
       </c>
       <c r="B200" t="inlineStr"/>
@@ -21818,7 +21818,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>HAX</t>
+          <t>DPS</t>
         </is>
       </c>
       <c r="B201" t="inlineStr"/>
@@ -21921,7 +21921,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>QNS</t>
+          <t>PVR</t>
         </is>
       </c>
       <c r="B202" t="inlineStr"/>
@@ -22024,7 +22024,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>PVS</t>
+          <t>V21</t>
         </is>
       </c>
       <c r="B203" t="inlineStr"/>
@@ -22127,7 +22127,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t>KSF</t>
         </is>
       </c>
       <c r="B204" t="inlineStr"/>
@@ -22230,7 +22230,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>PV2</t>
+          <t>TDT</t>
         </is>
       </c>
       <c r="B205" t="inlineStr"/>
@@ -22333,7 +22333,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>ATG</t>
+          <t>CEN</t>
         </is>
       </c>
       <c r="B206" t="inlineStr"/>
@@ -22436,7 +22436,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>S99</t>
+          <t>SGI</t>
         </is>
       </c>
       <c r="B207" t="inlineStr"/>
@@ -22539,7 +22539,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>DRC</t>
+          <t>VC1</t>
         </is>
       </c>
       <c r="B208" t="inlineStr"/>
@@ -22642,7 +22642,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>CIG</t>
+          <t>VGI</t>
         </is>
       </c>
       <c r="B209" t="inlineStr"/>
@@ -22745,7 +22745,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>ACL</t>
+          <t>PSP</t>
         </is>
       </c>
       <c r="B210" t="inlineStr"/>
@@ -22848,7 +22848,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>HDB</t>
+          <t>GAB</t>
         </is>
       </c>
       <c r="B211" t="inlineStr"/>
@@ -22951,7 +22951,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>BCC</t>
+          <t>CDO</t>
         </is>
       </c>
       <c r="B212" t="inlineStr"/>
@@ -23054,7 +23054,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>ORS</t>
+          <t>ACC</t>
         </is>
       </c>
       <c r="B213" t="inlineStr"/>
@@ -23157,7 +23157,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>GPC</t>
+          <t>GHC</t>
         </is>
       </c>
       <c r="B214" t="inlineStr"/>
@@ -23260,7 +23260,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>STH</t>
+          <t>NXT</t>
         </is>
       </c>
       <c r="B215" t="inlineStr"/>
@@ -23363,7 +23363,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>UDC</t>
+          <t>SMT</t>
         </is>
       </c>
       <c r="B216" t="inlineStr"/>
@@ -23466,7 +23466,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>NDN</t>
+          <t>ACM</t>
         </is>
       </c>
       <c r="B217" t="inlineStr"/>
@@ -23569,7 +23569,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>ADG</t>
+          <t>AAT</t>
         </is>
       </c>
       <c r="B218" t="inlineStr"/>
@@ -23672,7 +23672,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>AVF</t>
+          <t>PAT</t>
         </is>
       </c>
       <c r="B219" t="inlineStr"/>
@@ -23775,7 +23775,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>SAM</t>
+          <t>C47</t>
         </is>
       </c>
       <c r="B220" t="inlineStr"/>
@@ -23878,7 +23878,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>VHE</t>
+          <t>CKG</t>
         </is>
       </c>
       <c r="B221" t="inlineStr"/>
@@ -23981,7 +23981,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>ACB</t>
+          <t>TID</t>
         </is>
       </c>
       <c r="B222" t="inlineStr"/>
@@ -24084,7 +24084,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>CST</t>
+          <t>DZM</t>
         </is>
       </c>
       <c r="B223" t="inlineStr"/>
@@ -24187,7 +24187,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>DXS</t>
+          <t>NKG</t>
         </is>
       </c>
       <c r="B224" t="inlineStr"/>
@@ -24290,7 +24290,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>HLD</t>
+          <t>HDA</t>
         </is>
       </c>
       <c r="B225" t="inlineStr"/>
@@ -24393,7 +24393,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>NVL</t>
+          <t>ABI</t>
         </is>
       </c>
       <c r="B226" t="inlineStr"/>
@@ -24496,7 +24496,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>DCS</t>
+          <t>VNL</t>
         </is>
       </c>
       <c r="B227" t="inlineStr"/>
@@ -24599,7 +24599,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>PSW</t>
+          <t>CDC</t>
         </is>
       </c>
       <c r="B228" t="inlineStr"/>
@@ -24702,7 +24702,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>PRE</t>
+          <t>GKM</t>
         </is>
       </c>
       <c r="B229" t="inlineStr"/>
@@ -24805,7 +24805,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>LHG</t>
+          <t>DHG</t>
         </is>
       </c>
       <c r="B230" t="inlineStr"/>
@@ -24908,7 +24908,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>TV2</t>
+          <t>BCM</t>
         </is>
       </c>
       <c r="B231" t="inlineStr"/>
@@ -25011,7 +25011,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>CTF</t>
+          <t>BMC</t>
         </is>
       </c>
       <c r="B232" t="inlineStr"/>
@@ -25114,7 +25114,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>TNH</t>
+          <t>VGC</t>
         </is>
       </c>
       <c r="B233" t="inlineStr"/>
@@ -25217,7 +25217,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>VID</t>
+          <t>NCG</t>
         </is>
       </c>
       <c r="B234" t="inlineStr"/>
@@ -25320,7 +25320,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>LDP</t>
+          <t>TDC</t>
         </is>
       </c>
       <c r="B235" t="inlineStr"/>
@@ -25423,7 +25423,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>SCR</t>
+          <t>NHA</t>
         </is>
       </c>
       <c r="B236" t="inlineStr"/>
@@ -25526,7 +25526,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>NKG</t>
+          <t>TCI</t>
         </is>
       </c>
       <c r="B237" t="inlineStr"/>
@@ -25629,7 +25629,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>SBS</t>
+          <t>VIT</t>
         </is>
       </c>
       <c r="B238" t="inlineStr"/>
@@ -25732,7 +25732,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>GHC</t>
+          <t>SSN</t>
         </is>
       </c>
       <c r="B239" t="inlineStr"/>
@@ -25835,7 +25835,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>DTI</t>
+          <t>MSB</t>
         </is>
       </c>
       <c r="B240" t="inlineStr"/>
@@ -25938,7 +25938,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>VRC</t>
+          <t>HVH</t>
         </is>
       </c>
       <c r="B241" t="inlineStr"/>
@@ -26041,7 +26041,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>SDD</t>
+          <t>ITD</t>
         </is>
       </c>
       <c r="B242" t="inlineStr"/>
@@ -26144,7 +26144,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>KGM</t>
+          <t>VGT</t>
         </is>
       </c>
       <c r="B243" t="inlineStr"/>
@@ -26247,7 +26247,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>KVC</t>
+          <t>MSN</t>
         </is>
       </c>
       <c r="B244" t="inlineStr"/>
@@ -26350,7 +26350,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>DAH</t>
+          <t>PVD</t>
         </is>
       </c>
       <c r="B245" t="inlineStr"/>
@@ -26453,7 +26453,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>BAF</t>
+          <t>C69</t>
         </is>
       </c>
       <c r="B246" t="inlineStr"/>
@@ -26552,7 +26552,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>DDV</t>
+          <t>ACG</t>
         </is>
       </c>
       <c r="B247" t="inlineStr"/>
@@ -26651,7 +26651,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>TLG</t>
+          <t>CAG</t>
         </is>
       </c>
       <c r="B248" t="inlineStr"/>
@@ -26750,7 +26750,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>PCH</t>
+          <t>PVL</t>
         </is>
       </c>
       <c r="B249" t="inlineStr"/>
@@ -26849,7 +26849,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>C69</t>
+          <t>THT</t>
         </is>
       </c>
       <c r="B250" t="inlineStr"/>
@@ -26948,7 +26948,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>HAI</t>
+          <t>SVD</t>
         </is>
       </c>
       <c r="B251" t="inlineStr"/>
@@ -27047,7 +27047,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>VNE</t>
+          <t>SDA</t>
         </is>
       </c>
       <c r="B252" t="inlineStr"/>
@@ -27146,7 +27146,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>ABS</t>
+          <t>PPH</t>
         </is>
       </c>
       <c r="B253" t="inlineStr"/>
@@ -27245,7 +27245,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>BCE</t>
+          <t>DCS</t>
         </is>
       </c>
       <c r="B254" t="inlineStr"/>
@@ -27344,7 +27344,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>PGC</t>
+          <t>PSE</t>
         </is>
       </c>
       <c r="B255" t="inlineStr"/>
@@ -27443,7 +27443,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>KHP</t>
+          <t>BCR</t>
         </is>
       </c>
       <c r="B256" t="inlineStr"/>
@@ -27542,7 +27542,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>DCL</t>
+          <t>SBG</t>
         </is>
       </c>
       <c r="B257" t="inlineStr"/>
@@ -27641,7 +27641,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>TTB</t>
+          <t>VE9</t>
         </is>
       </c>
       <c r="B258" t="inlineStr"/>
@@ -27740,7 +27740,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>SGR</t>
+          <t>AVF</t>
         </is>
       </c>
       <c r="B259" t="inlineStr"/>
@@ -27839,7 +27839,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>ANV</t>
+          <t>LDP</t>
         </is>
       </c>
       <c r="B260" t="inlineStr"/>
@@ -27938,7 +27938,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>MAC</t>
+          <t>DS3</t>
         </is>
       </c>
       <c r="B261" t="inlineStr"/>
@@ -28037,7 +28037,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>PTL</t>
+          <t>CMG</t>
         </is>
       </c>
       <c r="B262" t="inlineStr"/>
@@ -28136,7 +28136,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>IDC</t>
+          <t>PV2</t>
         </is>
       </c>
       <c r="B263" t="inlineStr"/>
@@ -28235,7 +28235,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>DTD</t>
+          <t>HAI</t>
         </is>
       </c>
       <c r="B264" t="inlineStr"/>
@@ -28334,7 +28334,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>ART</t>
+          <t>NDN</t>
         </is>
       </c>
       <c r="B265" t="inlineStr"/>
@@ -28433,7 +28433,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>SBB</t>
         </is>
       </c>
       <c r="B266" t="inlineStr"/>
@@ -28532,7 +28532,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>EIB</t>
+          <t>CTG</t>
         </is>
       </c>
       <c r="B267" t="inlineStr"/>
@@ -28631,7 +28631,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>PRT</t>
+          <t>LIX</t>
         </is>
       </c>
       <c r="B268" t="inlineStr"/>
@@ -28730,7 +28730,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>CGV</t>
+          <t>FMC</t>
         </is>
       </c>
       <c r="B269" t="inlineStr"/>
@@ -28829,7 +28829,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>ACV</t>
+          <t>BGE</t>
         </is>
       </c>
       <c r="B270" t="inlineStr"/>
@@ -28928,7 +28928,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>SAB</t>
+          <t>DVG</t>
         </is>
       </c>
       <c r="B271" t="inlineStr"/>
@@ -29027,7 +29027,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>FPT</t>
+          <t>DGC</t>
         </is>
       </c>
       <c r="B272" t="inlineStr"/>
@@ -29122,7 +29122,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>KDH</t>
+          <t>DPG</t>
         </is>
       </c>
       <c r="B273" t="inlineStr"/>
@@ -29217,7 +29217,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>PNJ</t>
+          <t>SD9</t>
         </is>
       </c>
       <c r="B274" t="inlineStr"/>
@@ -29312,7 +29312,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>TXM</t>
+          <t>LAS</t>
         </is>
       </c>
       <c r="B275" t="inlineStr"/>
@@ -29407,7 +29407,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>VSH</t>
+          <t>BIG</t>
         </is>
       </c>
       <c r="B276" t="inlineStr"/>
@@ -29502,7 +29502,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>DGT</t>
+          <t>MAC</t>
         </is>
       </c>
       <c r="B277" t="inlineStr"/>
@@ -29597,7 +29597,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>QCG</t>
+          <t>GTT</t>
         </is>
       </c>
       <c r="B278" t="inlineStr"/>
@@ -29692,7 +29692,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>SDP</t>
+          <t>SSH</t>
         </is>
       </c>
       <c r="B279" t="inlineStr"/>
@@ -29787,7 +29787,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>TKG</t>
+          <t>CLX</t>
         </is>
       </c>
       <c r="B280" t="inlineStr"/>
@@ -29882,7 +29882,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>PAN</t>
+          <t>PVV</t>
         </is>
       </c>
       <c r="B281" t="inlineStr"/>
@@ -29977,7 +29977,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>MSN</t>
+          <t>DDV</t>
         </is>
       </c>
       <c r="B282" t="inlineStr"/>
@@ -30072,7 +30072,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>CTR</t>
+          <t>TIS</t>
         </is>
       </c>
       <c r="B283" t="inlineStr"/>
@@ -30167,7 +30167,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>ELC</t>
+          <t>TTH</t>
         </is>
       </c>
       <c r="B284" t="inlineStr"/>
@@ -30262,7 +30262,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>VRG</t>
+          <t>HCM</t>
         </is>
       </c>
       <c r="B285" t="inlineStr"/>
@@ -30357,7 +30357,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>MSR</t>
+          <t>DTI</t>
         </is>
       </c>
       <c r="B286" t="inlineStr"/>
@@ -30452,7 +30452,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>CTG</t>
+          <t>PVO</t>
         </is>
       </c>
       <c r="B287" t="inlineStr"/>
@@ -30547,7 +30547,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>VHG</t>
+          <t>AAA</t>
         </is>
       </c>
       <c r="B288" t="inlineStr"/>
@@ -30642,7 +30642,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>PET</t>
+          <t>BMP</t>
         </is>
       </c>
       <c r="B289" t="inlineStr"/>
@@ -30737,7 +30737,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>BMC</t>
+          <t>EVS</t>
         </is>
       </c>
       <c r="B290" t="inlineStr"/>
@@ -30832,7 +30832,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>DS3</t>
+          <t>VTD</t>
         </is>
       </c>
       <c r="B291" t="inlineStr"/>
@@ -30927,7 +30927,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>NRC</t>
+          <t>PSB</t>
         </is>
       </c>
       <c r="B292" t="inlineStr"/>
@@ -31022,7 +31022,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>GDA</t>
+          <t>TMS</t>
         </is>
       </c>
       <c r="B293" t="inlineStr"/>
@@ -31117,7 +31117,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>POM</t>
+          <t>LTG</t>
         </is>
       </c>
       <c r="B294" t="inlineStr"/>
@@ -31212,7 +31212,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>PSD</t>
+          <t>PLC</t>
         </is>
       </c>
       <c r="B295" t="inlineStr"/>
@@ -31307,7 +31307,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>APH</t>
+          <t>VC9</t>
         </is>
       </c>
       <c r="B296" t="inlineStr"/>
@@ -31402,7 +31402,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>BCG</t>
+          <t>POS</t>
         </is>
       </c>
       <c r="B297" t="inlineStr"/>
@@ -31497,7 +31497,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>UDJ</t>
+          <t>SHI</t>
         </is>
       </c>
       <c r="B298" t="inlineStr"/>
@@ -31592,7 +31592,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>POS</t>
+          <t>GEE</t>
         </is>
       </c>
       <c r="B299" t="inlineStr"/>
@@ -31687,7 +31687,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>DIC</t>
+          <t>EIB</t>
         </is>
       </c>
       <c r="B300" t="inlineStr"/>
@@ -31782,7 +31782,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>STK</t>
+          <t>DIC</t>
         </is>
       </c>
       <c r="B301" t="inlineStr"/>
@@ -31877,7 +31877,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>GTT</t>
+          <t>SD6</t>
         </is>
       </c>
       <c r="B302" t="inlineStr"/>
@@ -31972,7 +31972,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>AGM</t>
+          <t>BSR</t>
         </is>
       </c>
       <c r="B303" t="inlineStr"/>
@@ -32067,7 +32067,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>HIO</t>
+          <t>NSH</t>
         </is>
       </c>
       <c r="B304" t="inlineStr"/>
@@ -32162,7 +32162,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>BIC</t>
+          <t>CRC</t>
         </is>
       </c>
       <c r="B305" t="inlineStr"/>
@@ -32257,7 +32257,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>NLG</t>
+          <t>HSV</t>
         </is>
       </c>
       <c r="B306" t="inlineStr"/>
@@ -32348,7 +32348,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>VRE</t>
         </is>
       </c>
       <c r="B307" t="inlineStr"/>
@@ -32439,7 +32439,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>PGV</t>
+          <t>ILB</t>
         </is>
       </c>
       <c r="B308" t="inlineStr"/>
@@ -32530,7 +32530,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>VIC</t>
+          <t>ROS</t>
         </is>
       </c>
       <c r="B309" t="inlineStr"/>
@@ -32621,7 +32621,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>HPG</t>
+          <t>TDH</t>
         </is>
       </c>
       <c r="B310" t="inlineStr"/>
@@ -32712,7 +32712,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>BWE</t>
+          <t>ODE</t>
         </is>
       </c>
       <c r="B311" t="inlineStr"/>
@@ -32803,7 +32803,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>PSI</t>
+          <t>NO1</t>
         </is>
       </c>
       <c r="B312" t="inlineStr"/>
@@ -32890,7 +32890,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>NTL</t>
+          <t>HDB</t>
         </is>
       </c>
       <c r="B313" t="inlineStr"/>
@@ -32977,7 +32977,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>MPC</t>
+          <t>AGG</t>
         </is>
       </c>
       <c r="B314" t="inlineStr"/>
@@ -33064,7 +33064,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>TSC</t>
+          <t>DAG</t>
         </is>
       </c>
       <c r="B315" t="inlineStr"/>
@@ -33151,7 +33151,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>ACG</t>
+          <t>PDB</t>
         </is>
       </c>
       <c r="B316" t="inlineStr"/>
@@ -33238,7 +33238,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>PC1</t>
+          <t>IDC</t>
         </is>
       </c>
       <c r="B317" t="inlineStr"/>
@@ -33325,7 +33325,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>SVT</t>
+          <t>FPT</t>
         </is>
       </c>
       <c r="B318" t="inlineStr"/>
@@ -33412,7 +33412,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>PDB</t>
+          <t>STH</t>
         </is>
       </c>
       <c r="B319" t="inlineStr"/>
@@ -33499,7 +33499,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>VSE</t>
+          <t>SZL</t>
         </is>
       </c>
       <c r="B320" t="inlineStr"/>
@@ -33586,7 +33586,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>PAT</t>
+          <t>HDG</t>
         </is>
       </c>
       <c r="B321" t="inlineStr"/>
@@ -33673,7 +33673,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>VC1</t>
+          <t>TIP</t>
         </is>
       </c>
       <c r="B322" t="inlineStr"/>
@@ -33760,7 +33760,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>DCM</t>
+          <t>HII</t>
         </is>
       </c>
       <c r="B323" t="inlineStr"/>
@@ -33847,7 +33847,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>AAS</t>
+          <t>NRC</t>
         </is>
       </c>
       <c r="B324" t="inlineStr"/>
@@ -33934,7 +33934,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>HBC</t>
+          <t>AAV</t>
         </is>
       </c>
       <c r="B325" t="inlineStr"/>
@@ -34021,7 +34021,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>VTO</t>
+          <t>GDT</t>
         </is>
       </c>
       <c r="B326" t="inlineStr"/>
@@ -34108,7 +34108,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>TCW</t>
+          <t>HVX</t>
         </is>
       </c>
       <c r="B327" t="inlineStr"/>
@@ -34195,7 +34195,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>REE</t>
+          <t>CVT</t>
         </is>
       </c>
       <c r="B328" t="inlineStr"/>
@@ -34282,7 +34282,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>FOC</t>
+          <t>VPD</t>
         </is>
       </c>
       <c r="B329" t="inlineStr"/>
@@ -34369,7 +34369,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>DBD</t>
+          <t>DFF</t>
         </is>
       </c>
       <c r="B330" t="inlineStr"/>
@@ -34456,7 +34456,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>DHA</t>
+          <t>LCG</t>
         </is>
       </c>
       <c r="B331" t="inlineStr"/>
@@ -34543,7 +34543,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>MSB</t>
+          <t>PSW</t>
         </is>
       </c>
       <c r="B332" t="inlineStr"/>
@@ -34630,7 +34630,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>VBB</t>
+          <t>DCL</t>
         </is>
       </c>
       <c r="B333" t="inlineStr"/>
@@ -34717,7 +34717,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>DVM</t>
+          <t>VTP</t>
         </is>
       </c>
       <c r="B334" t="inlineStr"/>
@@ -34800,7 +34800,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>NT2</t>
+          <t>BVS</t>
         </is>
       </c>
       <c r="B335" t="inlineStr"/>
@@ -34883,7 +34883,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>SCS</t>
+          <t>BAF</t>
         </is>
       </c>
       <c r="B336" t="inlineStr"/>
@@ -34966,7 +34966,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>LCG</t>
+          <t>HCD</t>
         </is>
       </c>
       <c r="B337" t="inlineStr"/>
@@ -35049,7 +35049,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>HAR</t>
+          <t>UDJ</t>
         </is>
       </c>
       <c r="B338" t="inlineStr"/>
@@ -35132,7 +35132,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>SDA</t>
+          <t>VNE</t>
         </is>
       </c>
       <c r="B339" t="inlineStr"/>
@@ -35215,7 +35215,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>PVT</t>
+          <t>TV2</t>
         </is>
       </c>
       <c r="B340" t="inlineStr"/>
@@ -35298,7 +35298,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>RIC</t>
+          <t>PLX</t>
         </is>
       </c>
       <c r="B341" t="inlineStr"/>
@@ -35381,7 +35381,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>GVR</t>
+          <t>VTO</t>
         </is>
       </c>
       <c r="B342" t="inlineStr"/>
@@ -35464,7 +35464,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>TVC</t>
+          <t>KDC</t>
         </is>
       </c>
       <c r="B343" t="inlineStr"/>
@@ -35547,7 +35547,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>VCR</t>
+          <t>TL4</t>
         </is>
       </c>
       <c r="B344" t="inlineStr"/>
@@ -35626,7 +35626,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>SZL</t>
+          <t>HLD</t>
         </is>
       </c>
       <c r="B345" t="inlineStr"/>
@@ -35705,7 +35705,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>DGC</t>
+          <t>SJE</t>
         </is>
       </c>
       <c r="B346" t="inlineStr"/>
@@ -35784,7 +35784,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>PBC</t>
+          <t>NNC</t>
         </is>
       </c>
       <c r="B347" t="inlineStr"/>
@@ -35863,7 +35863,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>VKC</t>
+          <t>KBC</t>
         </is>
       </c>
       <c r="B348" t="inlineStr"/>
@@ -35942,7 +35942,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>DAG</t>
+          <t>PXT</t>
         </is>
       </c>
       <c r="B349" t="inlineStr"/>
@@ -36021,7 +36021,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>BMI</t>
+          <t>DIG</t>
         </is>
       </c>
       <c r="B350" t="inlineStr"/>
@@ -36100,7 +36100,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>XMC</t>
+          <t>CMS</t>
         </is>
       </c>
       <c r="B351" t="inlineStr"/>
@@ -36179,7 +36179,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>TNA</t>
+          <t>DXV</t>
         </is>
       </c>
       <c r="B352" t="inlineStr"/>
@@ -36258,7 +36258,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>BTP</t>
+          <t>DRI</t>
         </is>
       </c>
       <c r="B353" t="inlineStr"/>
@@ -36333,7 +36333,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>SHA</t>
+          <t>AMD</t>
         </is>
       </c>
       <c r="B354" t="inlineStr"/>
@@ -36408,7 +36408,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>G36</t>
+          <t>SGB</t>
         </is>
       </c>
       <c r="B355" t="inlineStr"/>
@@ -36479,7 +36479,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>CMT</t>
+          <t>PGV</t>
         </is>
       </c>
       <c r="B356" t="inlineStr"/>
@@ -36550,7 +36550,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>VUA</t>
+          <t>ABS</t>
         </is>
       </c>
       <c r="B357" t="inlineStr"/>
@@ -36621,7 +36621,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>SCL</t>
+          <t>TIN</t>
         </is>
       </c>
       <c r="B358" t="inlineStr"/>
@@ -36692,7 +36692,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>DC4</t>
+          <t>VTV</t>
         </is>
       </c>
       <c r="B359" t="inlineStr"/>
@@ -36763,7 +36763,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>DXV</t>
+          <t>NBC</t>
         </is>
       </c>
       <c r="B360" t="inlineStr"/>
@@ -36834,7 +36834,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>VNL</t>
+          <t>SGT</t>
         </is>
       </c>
       <c r="B361" t="inlineStr"/>
@@ -36905,7 +36905,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>SCI</t>
+          <t>LMH</t>
         </is>
       </c>
       <c r="B362" t="inlineStr"/>
@@ -36972,7 +36972,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>TL4</t>
+          <t>VSH</t>
         </is>
       </c>
       <c r="B363" t="inlineStr"/>
@@ -37039,7 +37039,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>ICT</t>
+          <t>SGR</t>
         </is>
       </c>
       <c r="B364" t="inlineStr"/>
@@ -37106,7 +37106,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>BCM</t>
+          <t>BVH</t>
         </is>
       </c>
       <c r="B365" t="inlineStr"/>
@@ -37173,7 +37173,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>DSC</t>
+          <t>VND</t>
         </is>
       </c>
       <c r="B366" t="inlineStr"/>
@@ -37240,7 +37240,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>SBV</t>
+          <t>SAB</t>
         </is>
       </c>
       <c r="B367" t="inlineStr"/>
@@ -37307,7 +37307,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>VEC</t>
+          <t>EVE</t>
         </is>
       </c>
       <c r="B368" t="inlineStr"/>
@@ -37370,7 +37370,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>SGT</t>
+          <t>VBB</t>
         </is>
       </c>
       <c r="B369" t="inlineStr"/>
@@ -37433,7 +37433,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>CII</t>
+          <t>PNJ</t>
         </is>
       </c>
       <c r="B370" t="inlineStr"/>
@@ -37496,7 +37496,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>VEA</t>
+          <t>VIX</t>
         </is>
       </c>
       <c r="B371" t="inlineStr"/>
@@ -37559,7 +37559,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>PVO</t>
+          <t>MSH</t>
         </is>
       </c>
       <c r="B372" t="inlineStr"/>
@@ -37622,7 +37622,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>LCM</t>
+          <t>TCL</t>
         </is>
       </c>
       <c r="B373" t="inlineStr"/>
@@ -37685,7 +37685,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>PPI</t>
         </is>
       </c>
       <c r="B374" t="inlineStr"/>
@@ -37748,7 +37748,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>PVC</t>
+          <t>APG</t>
         </is>
       </c>
       <c r="B375" t="inlineStr"/>
@@ -37811,7 +37811,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>ASP</t>
+          <t>VSC</t>
         </is>
       </c>
       <c r="B376" t="inlineStr"/>
@@ -37874,7 +37874,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>HBS</t>
+          <t>PHP</t>
         </is>
       </c>
       <c r="B377" t="inlineStr"/>
@@ -37937,7 +37937,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>SJE</t>
+          <t>TTF</t>
         </is>
       </c>
       <c r="B378" t="inlineStr"/>
@@ -38000,7 +38000,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>FCM</t>
+          <t>NTL</t>
         </is>
       </c>
       <c r="B379" t="inlineStr"/>
@@ -38063,7 +38063,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>MFS</t>
+          <t>MVC</t>
         </is>
       </c>
       <c r="B380" t="inlineStr"/>
@@ -38126,7 +38126,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>CRC</t>
+          <t>DMC</t>
         </is>
       </c>
       <c r="B381" t="inlineStr"/>
@@ -38189,7 +38189,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>HDG</t>
+          <t>HTM</t>
         </is>
       </c>
       <c r="B382" t="inlineStr"/>
@@ -38252,7 +38252,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>VGI</t>
+          <t>D2D</t>
         </is>
       </c>
       <c r="B383" t="inlineStr"/>
@@ -38315,7 +38315,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>LTG</t>
+          <t>HAR</t>
         </is>
       </c>
       <c r="B384" t="inlineStr"/>
@@ -38378,7 +38378,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>SSH</t>
+          <t>SCR</t>
         </is>
       </c>
       <c r="B385" t="inlineStr"/>
@@ -38441,7 +38441,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>THT</t>
+          <t>ST8</t>
         </is>
       </c>
       <c r="B386" t="inlineStr"/>
@@ -38504,7 +38504,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>PVX</t>
+          <t>TEG</t>
         </is>
       </c>
       <c r="B387" t="inlineStr"/>
@@ -38567,7 +38567,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>FIT</t>
+          <t>AAH</t>
         </is>
       </c>
       <c r="B388" t="inlineStr"/>
@@ -38630,7 +38630,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>VND</t>
+          <t>MHC</t>
         </is>
       </c>
       <c r="B389" t="inlineStr"/>
@@ -38693,7 +38693,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>LIG</t>
+          <t>TTZ</t>
         </is>
       </c>
       <c r="B390" t="inlineStr"/>
@@ -38756,7 +38756,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>VLG</t>
+          <t>GDA</t>
         </is>
       </c>
       <c r="B391" t="inlineStr"/>
@@ -38819,7 +38819,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>SCJ</t>
+          <t>C4G</t>
         </is>
       </c>
       <c r="B392" t="inlineStr"/>
@@ -38882,7 +38882,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>SD3</t>
+          <t>LSS</t>
         </is>
       </c>
       <c r="B393" t="inlineStr"/>
@@ -38945,7 +38945,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>DDN</t>
+          <t>HAX</t>
         </is>
       </c>
       <c r="B394" t="inlineStr"/>
@@ -39004,7 +39004,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>ST8</t>
+          <t>AGM</t>
         </is>
       </c>
       <c r="B395" t="inlineStr"/>
@@ -39055,7 +39055,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>CMX</t>
+          <t>CTP</t>
         </is>
       </c>
       <c r="B396" t="inlineStr"/>
@@ -39106,7 +39106,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>VJC</t>
+          <t>NCT</t>
         </is>
       </c>
       <c r="B397" t="inlineStr"/>
@@ -39157,7 +39157,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>PDR</t>
+          <t>SAV</t>
         </is>
       </c>
       <c r="B398" t="inlineStr"/>
@@ -39208,7 +39208,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>VC2</t>
+          <t>GMA</t>
         </is>
       </c>
       <c r="B399" t="inlineStr"/>
@@ -39259,7 +39259,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>ITS</t>
+          <t>TTA</t>
         </is>
       </c>
       <c r="B400" t="inlineStr"/>
@@ -39310,7 +39310,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>TAL</t>
+          <t>DSC</t>
         </is>
       </c>
       <c r="B401" t="inlineStr"/>
@@ -39361,7 +39361,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>TCH</t>
+          <t>FID</t>
         </is>
       </c>
       <c r="B402" t="inlineStr"/>
@@ -39412,7 +39412,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>L12</t>
+          <t>KMR</t>
         </is>
       </c>
       <c r="B403" t="inlineStr"/>
@@ -39463,7 +39463,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>POW</t>
+          <t>APH</t>
         </is>
       </c>
       <c r="B404" t="inlineStr"/>
@@ -39514,7 +39514,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>TLH</t>
+          <t>DQC</t>
         </is>
       </c>
       <c r="B405" t="inlineStr"/>
@@ -39565,7 +39565,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>HIG</t>
+          <t>PCH</t>
         </is>
       </c>
       <c r="B406" t="inlineStr"/>
@@ -39616,7 +39616,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>KSF</t>
+          <t>MCO</t>
         </is>
       </c>
       <c r="B407" t="inlineStr"/>
@@ -39667,7 +39667,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>PVR</t>
+          <t>DGW</t>
         </is>
       </c>
       <c r="B408" t="inlineStr"/>
@@ -39714,7 +39714,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>NXT</t>
+          <t>SHS</t>
         </is>
       </c>
       <c r="B409" t="inlineStr"/>
@@ -39761,7 +39761,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>SGB</t>
+          <t>VNP</t>
         </is>
       </c>
       <c r="B410" t="inlineStr"/>
@@ -39808,7 +39808,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>PLX</t>
+          <t>PIV</t>
         </is>
       </c>
       <c r="B411" t="inlineStr"/>
@@ -39855,7 +39855,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>PDV</t>
+          <t>IJC</t>
         </is>
       </c>
       <c r="B412" t="inlineStr"/>
@@ -39902,7 +39902,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>DPR</t>
+          <t>OGC</t>
         </is>
       </c>
       <c r="B413" t="inlineStr"/>
@@ -39949,7 +39949,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>PTC</t>
+          <t>CMT</t>
         </is>
       </c>
       <c r="B414" t="inlineStr"/>
@@ -39996,7 +39996,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>SZC</t>
+          <t>VUA</t>
         </is>
       </c>
       <c r="B415" t="inlineStr"/>
@@ -40043,7 +40043,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>CAG</t>
+          <t>HTP</t>
         </is>
       </c>
       <c r="B416" t="inlineStr"/>
@@ -40090,7 +40090,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>PBP</t>
+          <t>ICT</t>
         </is>
       </c>
       <c r="B417" t="inlineStr"/>
@@ -40137,7 +40137,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>IMP</t>
+          <t>ORS</t>
         </is>
       </c>
       <c r="B418" t="inlineStr"/>
@@ -40180,7 +40180,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>EIN</t>
+          <t>VPI</t>
         </is>
       </c>
       <c r="B419" t="inlineStr"/>
@@ -40223,7 +40223,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>RYG</t>
+          <t>DST</t>
         </is>
       </c>
       <c r="B420" t="inlineStr"/>
@@ -40266,7 +40266,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>SHS</t>
+          <t>PTC</t>
         </is>
       </c>
       <c r="B421" t="inlineStr"/>
@@ -40309,7 +40309,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>NTC</t>
+          <t>XMC</t>
         </is>
       </c>
       <c r="B422" t="inlineStr"/>
@@ -40352,7 +40352,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>D2D</t>
+          <t>VPG</t>
         </is>
       </c>
       <c r="B423" t="inlineStr"/>
@@ -40395,7 +40395,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>VHM</t>
+          <t>TAR</t>
         </is>
       </c>
       <c r="B424" t="inlineStr"/>
@@ -40438,7 +40438,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>VPG</t>
+          <t>AMV</t>
         </is>
       </c>
       <c r="B425" t="inlineStr"/>
@@ -40481,7 +40481,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>VIG</t>
+          <t>BTN</t>
         </is>
       </c>
       <c r="B426" t="inlineStr"/>
@@ -40520,7 +40520,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>PXT</t>
+          <t>HHS</t>
         </is>
       </c>
       <c r="B427" t="inlineStr"/>
@@ -40559,7 +40559,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>IPA</t>
+          <t>KHP</t>
         </is>
       </c>
       <c r="B428" t="inlineStr"/>
@@ -40598,7 +40598,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>VLC</t>
+          <t>HBC</t>
         </is>
       </c>
       <c r="B429" t="inlineStr"/>
@@ -40637,7 +40637,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>CVN</t>
+          <t>DTE</t>
         </is>
       </c>
       <c r="B430" t="inlineStr"/>
@@ -40676,7 +40676,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>DST</t>
+          <t>SIP</t>
         </is>
       </c>
       <c r="B431" t="inlineStr"/>
@@ -40715,7 +40715,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>VDS</t>
+          <t>VIC</t>
         </is>
       </c>
       <c r="B432" t="inlineStr"/>
@@ -40754,7 +40754,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>SJD</t>
+          <t>VHM</t>
         </is>
       </c>
       <c r="B433" t="inlineStr"/>
@@ -40793,7 +40793,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>HVX</t>
+          <t>ADG</t>
         </is>
       </c>
       <c r="B434" t="inlineStr"/>
@@ -40832,7 +40832,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>PPC</t>
+          <t>POW</t>
         </is>
       </c>
       <c r="B435" t="inlineStr"/>
@@ -40871,7 +40871,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>PVG</t>
+          <t>GIC</t>
         </is>
       </c>
       <c r="B436" t="inlineStr"/>
@@ -40910,7 +40910,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>SMC</t>
+          <t>TYA</t>
         </is>
       </c>
       <c r="B437" t="inlineStr"/>
@@ -40949,7 +40949,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>NED</t>
+          <t>TNG</t>
         </is>
       </c>
       <c r="B438" t="inlineStr"/>
@@ -40988,7 +40988,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>MCG</t>
+          <t>KDM</t>
         </is>
       </c>
       <c r="B439" t="inlineStr"/>
@@ -41027,7 +41027,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>PHC</t>
+          <t>KSH</t>
         </is>
       </c>
       <c r="B440" t="inlineStr"/>
@@ -41066,7 +41066,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>NHA</t>
+          <t>IBC</t>
         </is>
       </c>
       <c r="B441" t="inlineStr"/>
@@ -41105,7 +41105,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>GDT</t>
+          <t>DHT</t>
         </is>
       </c>
       <c r="B442" t="inlineStr"/>
@@ -41144,7 +41144,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>MBG</t>
+          <t>TCW</t>
         </is>
       </c>
       <c r="B443" t="inlineStr"/>
@@ -41183,7 +41183,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>NHH</t>
+          <t>DCM</t>
         </is>
       </c>
       <c r="B444" t="inlineStr"/>
@@ -41222,7 +41222,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>NAB</t>
+          <t>BCG</t>
         </is>
       </c>
       <c r="B445" t="inlineStr"/>
@@ -41261,7 +41261,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="B446" t="inlineStr"/>
@@ -41296,7 +41296,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>VLB</t>
+          <t>SAM</t>
         </is>
       </c>
       <c r="B447" t="inlineStr"/>
@@ -41331,7 +41331,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>VFS</t>
+          <t>AAS</t>
         </is>
       </c>
       <c r="B448" t="inlineStr"/>
@@ -41366,7 +41366,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>CEN</t>
+          <t>UDC</t>
         </is>
       </c>
       <c r="B449" t="inlineStr"/>
@@ -41401,7 +41401,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>SJF</t>
+          <t>FCM</t>
         </is>
       </c>
       <c r="B450" t="inlineStr"/>
@@ -41436,7 +41436,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>SHB</t>
+          <t>GEG</t>
         </is>
       </c>
       <c r="B451" t="inlineStr"/>
@@ -41471,7 +41471,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>HSL</t>
+          <t>TNA</t>
         </is>
       </c>
       <c r="B452" t="inlineStr"/>
@@ -41506,7 +41506,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>BVB</t>
+          <t>KSB</t>
         </is>
       </c>
       <c r="B453" t="inlineStr"/>
@@ -41541,7 +41541,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>OGC</t>
+          <t>PFL</t>
         </is>
       </c>
       <c r="B454" t="inlineStr"/>
@@ -41576,7 +41576,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>TYA</t>
+          <t>PVX</t>
         </is>
       </c>
       <c r="B455" t="inlineStr"/>
@@ -41611,7 +41611,7 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>BMP</t>
+          <t>HBS</t>
         </is>
       </c>
       <c r="B456" t="inlineStr"/>
@@ -41646,7 +41646,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>HAP</t>
+          <t>DVM</t>
         </is>
       </c>
       <c r="B457" t="inlineStr"/>
@@ -41681,7 +41681,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>VNP</t>
+          <t>POM</t>
         </is>
       </c>
       <c r="B458" t="inlineStr"/>
@@ -41716,7 +41716,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>TA9</t>
+          <t>PSD</t>
         </is>
       </c>
       <c r="B459" t="inlineStr"/>
@@ -41751,7 +41751,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>NAG</t>
+          <t>HPX</t>
         </is>
       </c>
       <c r="B460" t="inlineStr"/>
@@ -41786,7 +41786,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>VTP</t>
+          <t>TSA</t>
         </is>
       </c>
       <c r="B461" t="inlineStr"/>
@@ -41821,7 +41821,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>CKG</t>
+          <t>TDG</t>
         </is>
       </c>
       <c r="B462" t="inlineStr"/>
@@ -41856,7 +41856,7 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>SFG</t>
+          <t>GSP</t>
         </is>
       </c>
       <c r="B463" t="inlineStr"/>
@@ -41891,7 +41891,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>DVG</t>
+          <t>ITC</t>
         </is>
       </c>
       <c r="B464" t="inlineStr"/>
@@ -41926,7 +41926,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>SBT</t>
+          <t>DL1</t>
         </is>
       </c>
       <c r="B465" t="inlineStr"/>
@@ -41961,7 +41961,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>ITD</t>
+          <t>RIC</t>
         </is>
       </c>
       <c r="B466" t="inlineStr"/>
@@ -41996,7 +41996,7 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>OCB</t>
+          <t>WSS</t>
         </is>
       </c>
       <c r="B467" t="inlineStr"/>
@@ -42031,7 +42031,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>PAC</t>
+          <t>HD6</t>
         </is>
       </c>
       <c r="B468" t="inlineStr"/>
@@ -42066,7 +42066,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>DDG</t>
+          <t>PGT</t>
         </is>
       </c>
       <c r="B469" t="inlineStr"/>
@@ -42101,7 +42101,7 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>HTM</t>
+          <t>MBB</t>
         </is>
       </c>
       <c r="B470" t="inlineStr"/>
@@ -42136,7 +42136,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>NDT</t>
+          <t>VOS</t>
         </is>
       </c>
       <c r="B471" t="inlineStr"/>
@@ -42171,7 +42171,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>VPI</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="B472" t="inlineStr"/>
@@ -42206,7 +42206,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>PGI</t>
+          <t>EVF</t>
         </is>
       </c>
       <c r="B473" t="inlineStr"/>
@@ -42241,7 +42241,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>GMA</t>
+          <t>YEG</t>
         </is>
       </c>
       <c r="B474" t="inlineStr"/>
@@ -42276,7 +42276,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>VMC</t>
+          <t>OIL</t>
         </is>
       </c>
       <c r="B475" t="inlineStr"/>
@@ -42311,7 +42311,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>NHV</t>
+          <t>CVN</t>
         </is>
       </c>
       <c r="B476" t="inlineStr"/>
@@ -42346,7 +42346,7 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>HVG</t>
+          <t>BMI</t>
         </is>
       </c>
       <c r="B477" t="inlineStr"/>
@@ -42381,7 +42381,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>TPB</t>
+          <t>HMC</t>
         </is>
       </c>
       <c r="B478" t="inlineStr"/>
@@ -42416,7 +42416,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>IDJ</t>
+          <t>CIG</t>
         </is>
       </c>
       <c r="B479" t="inlineStr"/>
@@ -42451,7 +42451,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>QNC</t>
+          <t>SSI</t>
         </is>
       </c>
       <c r="B480" t="inlineStr"/>
@@ -42486,7 +42486,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>AAT</t>
+          <t>SVT</t>
         </is>
       </c>
       <c r="B481" t="inlineStr"/>
@@ -42521,7 +42521,7 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>TMS</t>
+          <t>VID</t>
         </is>
       </c>
       <c r="B482" t="inlineStr"/>
@@ -42556,7 +42556,7 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>BAB</t>
+          <t>VHE</t>
         </is>
       </c>
       <c r="B483" t="inlineStr"/>
@@ -42591,7 +42591,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>VTZ</t>
+          <t>VIB</t>
         </is>
       </c>
       <c r="B484" t="inlineStr"/>
@@ -42626,7 +42626,7 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>OIL</t>
+          <t>TVC</t>
         </is>
       </c>
       <c r="B485" t="inlineStr"/>
@@ -42661,7 +42661,7 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>MCH</t>
+          <t>ABB</t>
         </is>
       </c>
       <c r="B486" t="inlineStr"/>
@@ -42696,7 +42696,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>CHS</t>
+          <t>PGN</t>
         </is>
       </c>
       <c r="B487" t="inlineStr"/>
@@ -42731,7 +42731,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>JVC</t>
+          <t>DLG</t>
         </is>
       </c>
       <c r="B488" t="inlineStr"/>
@@ -42766,7 +42766,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>MVC</t>
+          <t>NAB</t>
         </is>
       </c>
       <c r="B489" t="inlineStr"/>
@@ -42801,7 +42801,7 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>SWC</t>
+          <t>SRA</t>
         </is>
       </c>
       <c r="B490" t="inlineStr"/>
@@ -42836,7 +42836,7 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>LPT</t>
+          <t>VPH</t>
         </is>
       </c>
       <c r="B491" t="inlineStr"/>
@@ -42871,7 +42871,7 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>TNI</t>
+          <t>S99</t>
         </is>
       </c>
       <c r="B492" t="inlineStr"/>
@@ -42906,7 +42906,7 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>SDT</t>
+          <t>NTC</t>
         </is>
       </c>
       <c r="B493" t="inlineStr"/>
@@ -42941,7 +42941,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>NBB</t>
+          <t>DTD</t>
         </is>
       </c>
       <c r="B494" t="inlineStr"/>
@@ -42976,7 +42976,7 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>FCN</t>
         </is>
       </c>
       <c r="B495" t="inlineStr"/>
@@ -43011,7 +43011,7 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>CNG</t>
+          <t>SBS</t>
         </is>
       </c>
       <c r="B496" t="inlineStr"/>
@@ -43046,7 +43046,7 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>VTD</t>
+          <t>BMS</t>
         </is>
       </c>
       <c r="B497" t="inlineStr"/>
@@ -43081,7 +43081,7 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>AAH</t>
+          <t>PBC</t>
         </is>
       </c>
       <c r="B498" t="inlineStr"/>
@@ -43116,7 +43116,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>IJC</t>
+          <t>TSC</t>
         </is>
       </c>
       <c r="B499" t="inlineStr"/>
@@ -43151,7 +43151,7 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>TTH</t>
+          <t>DDN</t>
         </is>
       </c>
       <c r="B500" t="inlineStr"/>
@@ -43186,7 +43186,7 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>MSH</t>
+          <t>EVG</t>
         </is>
       </c>
       <c r="B501" t="inlineStr"/>
@@ -43221,7 +43221,7 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>TDH</t>
+          <t>SHA</t>
         </is>
       </c>
       <c r="B502" t="inlineStr"/>
@@ -43256,7 +43256,7 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>VCI</t>
+          <t>NED</t>
         </is>
       </c>
       <c r="B503" t="inlineStr"/>
@@ -43291,7 +43291,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>VSC</t>
+          <t>AMS</t>
         </is>
       </c>
       <c r="B504" t="inlineStr"/>
@@ -43326,7 +43326,7 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>PLC</t>
+          <t>VCS</t>
         </is>
       </c>
       <c r="B505" t="inlineStr"/>
@@ -43361,7 +43361,7 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>VRE</t>
+          <t>L12</t>
         </is>
       </c>
       <c r="B506" t="inlineStr"/>
@@ -43396,7 +43396,7 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>TV3</t>
+          <t>STK</t>
         </is>
       </c>
       <c r="B507" t="inlineStr"/>
@@ -43431,7 +43431,7 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>VC3</t>
+          <t>L18</t>
         </is>
       </c>
       <c r="B508" t="inlineStr"/>
@@ -43466,7 +43466,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>FTM</t>
+          <t>HVA</t>
         </is>
       </c>
       <c r="B509" t="inlineStr"/>
@@ -43501,7 +43501,7 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>HUB</t>
+          <t>MIG</t>
         </is>
       </c>
       <c r="B510" t="inlineStr"/>
@@ -43532,7 +43532,7 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>THG</t>
+          <t>HTI</t>
         </is>
       </c>
       <c r="B511" t="inlineStr"/>
@@ -43563,7 +43563,7 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>AAV</t>
+          <t>VRC</t>
         </is>
       </c>
       <c r="B512" t="inlineStr"/>
@@ -43594,7 +43594,7 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>NVB</t>
+          <t>MST</t>
         </is>
       </c>
       <c r="B513" t="inlineStr"/>
@@ -43625,7 +43625,7 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>PVL</t>
+          <t>CTS</t>
         </is>
       </c>
       <c r="B514" t="inlineStr"/>
@@ -43656,7 +43656,7 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>VTK</t>
+          <t>GMH</t>
         </is>
       </c>
       <c r="B515" t="inlineStr"/>
@@ -43687,7 +43687,7 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>NO1</t>
+          <t>CCL</t>
         </is>
       </c>
       <c r="B516" t="inlineStr"/>
@@ -43718,7 +43718,7 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>PHP</t>
+          <t>NHH</t>
         </is>
       </c>
       <c r="B517" t="inlineStr"/>
@@ -43749,7 +43749,7 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>BFC</t>
+          <t>CGV</t>
         </is>
       </c>
       <c r="B518" t="inlineStr"/>
@@ -43780,7 +43780,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>EVE</t>
+          <t>VIP</t>
         </is>
       </c>
       <c r="B519" t="inlineStr"/>
@@ -43811,7 +43811,7 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>AGR</t>
+          <t>KPF</t>
         </is>
       </c>
       <c r="B520" t="inlineStr"/>
@@ -43842,7 +43842,7 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>CLX</t>
+          <t>VNH</t>
         </is>
       </c>
       <c r="B521" t="inlineStr"/>
@@ -43873,7 +43873,7 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>CCL</t>
+          <t>SDD</t>
         </is>
       </c>
       <c r="B522" t="inlineStr"/>
@@ -43904,7 +43904,7 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>LSS</t>
+          <t>VNR</t>
         </is>
       </c>
       <c r="B523" t="inlineStr"/>
@@ -43935,7 +43935,7 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>FTS</t>
+          <t>SCL</t>
         </is>
       </c>
       <c r="B524" t="inlineStr"/>
@@ -43966,7 +43966,7 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>SKG</t>
+          <t>ART</t>
         </is>
       </c>
       <c r="B525" t="inlineStr"/>
@@ -43997,7 +43997,7 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>LPB</t>
+          <t>PWA</t>
         </is>
       </c>
       <c r="B526" t="inlineStr"/>
@@ -44028,7 +44028,7 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>DVN</t>
+          <t>SKG</t>
         </is>
       </c>
       <c r="B527" t="inlineStr"/>
@@ -44059,7 +44059,7 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>TIG</t>
+          <t>VFS</t>
         </is>
       </c>
       <c r="B528" t="inlineStr"/>
@@ -44090,7 +44090,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>FID</t>
+          <t>SJS</t>
         </is>
       </c>
       <c r="B529" t="inlineStr"/>
@@ -44121,7 +44121,7 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>PVV</t>
+          <t>CNG</t>
         </is>
       </c>
       <c r="B530" t="inlineStr"/>
@@ -44152,7 +44152,7 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>VPD</t>
+          <t>ASP</t>
         </is>
       </c>
       <c r="B531" t="inlineStr"/>
@@ -44179,7 +44179,7 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>PSE</t>
+          <t>BKG</t>
         </is>
       </c>
       <c r="B532" t="inlineStr"/>
@@ -44206,7 +44206,7 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>IBC</t>
+          <t>CMX</t>
         </is>
       </c>
       <c r="B533" t="inlineStr"/>
@@ -44233,7 +44233,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>EVS</t>
+          <t>LCM</t>
         </is>
       </c>
       <c r="B534" t="inlineStr"/>
@@ -44260,7 +44260,7 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>FIT</t>
         </is>
       </c>
       <c r="B535" t="inlineStr"/>
@@ -44287,7 +44287,7 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>VPH</t>
+          <t>VCR</t>
         </is>
       </c>
       <c r="B536" t="inlineStr"/>
@@ -44314,7 +44314,7 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>TGG</t>
+          <t>TMT</t>
         </is>
       </c>
       <c r="B537" t="inlineStr"/>
@@ -44341,7 +44341,7 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>SPI</t>
+          <t>VFG</t>
         </is>
       </c>
       <c r="B538" t="inlineStr"/>
@@ -44368,7 +44368,7 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>KSB</t>
+          <t>APC</t>
         </is>
       </c>
       <c r="B539" t="inlineStr"/>
@@ -44395,7 +44395,7 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>V21</t>
+          <t>PGS</t>
         </is>
       </c>
       <c r="B540" t="inlineStr"/>
@@ -44422,7 +44422,7 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>HAG</t>
+          <t>STB</t>
         </is>
       </c>
       <c r="B541" t="inlineStr"/>
@@ -44449,7 +44449,7 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>KSQ</t>
+          <t>IDI</t>
         </is>
       </c>
       <c r="B542" t="inlineStr"/>
@@ -44476,7 +44476,7 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>PSH</t>
+          <t>TRC</t>
         </is>
       </c>
       <c r="B543" t="inlineStr"/>
@@ -44503,7 +44503,7 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>LGL</t>
+          <t>DRC</t>
         </is>
       </c>
       <c r="B544" t="inlineStr"/>
@@ -44530,7 +44530,7 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>TDP</t>
+          <t>DPM</t>
         </is>
       </c>
       <c r="B545" t="inlineStr"/>
@@ -44557,7 +44557,7 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>TCD</t>
+          <t>VHG</t>
         </is>
       </c>
       <c r="B546" t="inlineStr"/>
@@ -44584,7 +44584,7 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>TRC</t>
+          <t>DSE</t>
         </is>
       </c>
       <c r="B547" t="inlineStr"/>
@@ -44611,7 +44611,7 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>HHS</t>
+          <t>SJM</t>
         </is>
       </c>
       <c r="B548" t="inlineStr"/>
@@ -44638,7 +44638,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>TDT</t>
+          <t>TCB</t>
         </is>
       </c>
       <c r="B549" t="inlineStr"/>
@@ -44665,7 +44665,7 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>SBB</t>
+          <t>GEX</t>
         </is>
       </c>
       <c r="B550" t="inlineStr"/>
@@ -44692,7 +44692,7 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>VNH</t>
+          <t>PVP</t>
         </is>
       </c>
       <c r="B551" t="inlineStr"/>
@@ -44719,7 +44719,7 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>QBS</t>
+          <t>KSD</t>
         </is>
       </c>
       <c r="B552" t="inlineStr"/>
@@ -44746,7 +44746,7 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>PXI</t>
+          <t>TNI</t>
         </is>
       </c>
       <c r="B553" t="inlineStr"/>
@@ -44773,7 +44773,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>CSM</t>
+          <t>BCA</t>
         </is>
       </c>
       <c r="B554" t="inlineStr"/>
@@ -44800,7 +44800,7 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>HDA</t>
+          <t>VSE</t>
         </is>
       </c>
       <c r="B555" t="inlineStr"/>
@@ -44827,7 +44827,7 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>BTS</t>
+          <t>LDG</t>
         </is>
       </c>
       <c r="B556" t="inlineStr"/>
@@ -44854,7 +44854,7 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>HNG</t>
+          <t>VGS</t>
         </is>
       </c>
       <c r="B557" t="inlineStr"/>
@@ -44881,7 +44881,7 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>BIG</t>
+          <t>VCC</t>
         </is>
       </c>
       <c r="B558" t="inlineStr"/>
@@ -44908,7 +44908,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>AFX</t>
+          <t>HDC</t>
         </is>
       </c>
       <c r="B559" t="inlineStr"/>
@@ -44935,7 +44935,7 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>VGT</t>
+          <t>NLG</t>
         </is>
       </c>
       <c r="B560" t="inlineStr"/>
@@ -44962,7 +44962,7 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>TAR</t>
+          <t>DHC</t>
         </is>
       </c>
       <c r="B561" t="inlineStr"/>
@@ -44989,7 +44989,7 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>PCG</t>
+          <t>ILA</t>
         </is>
       </c>
       <c r="B562" t="inlineStr"/>
@@ -45016,7 +45016,7 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>CEO</t>
+          <t>BNA</t>
         </is>
       </c>
       <c r="B563" t="inlineStr"/>
@@ -45043,7 +45043,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>IVS</t>
+          <t>API</t>
         </is>
       </c>
       <c r="B564" t="inlineStr"/>
@@ -45070,7 +45070,7 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>VCS</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="B565" t="inlineStr"/>
@@ -45097,7 +45097,7 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>TCL</t>
+          <t>QCG</t>
         </is>
       </c>
       <c r="B566" t="inlineStr"/>
@@ -45124,7 +45124,7 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>VOC</t>
+          <t>PAS</t>
         </is>
       </c>
       <c r="B567" t="inlineStr"/>
@@ -45151,7 +45151,7 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>SJS</t>
+          <t>BAB</t>
         </is>
       </c>
       <c r="B568" t="inlineStr"/>
@@ -45178,7 +45178,7 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>PPI</t>
+          <t>HAH</t>
         </is>
       </c>
       <c r="B569" t="inlineStr"/>
@@ -45205,7 +45205,7 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>TVD</t>
+          <t>PXS</t>
         </is>
       </c>
       <c r="B570" t="inlineStr"/>
@@ -45232,7 +45232,7 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>KOS</t>
+          <t>ABW</t>
         </is>
       </c>
       <c r="B571" t="inlineStr"/>
@@ -45259,7 +45259,7 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>DMC</t>
+          <t>SCS</t>
         </is>
       </c>
       <c r="B572" t="inlineStr"/>
@@ -45286,7 +45286,7 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>SD9</t>
+          <t>DNM</t>
         </is>
       </c>
       <c r="B573" t="inlineStr"/>
@@ -45313,7 +45313,7 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>LIX</t>
+          <t>DBD</t>
         </is>
       </c>
       <c r="B574" t="inlineStr"/>
@@ -45340,7 +45340,7 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>DPM</t>
+          <t>VHC</t>
         </is>
       </c>
       <c r="B575" t="inlineStr"/>
@@ -45367,7 +45367,7 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>TCM</t>
+          <t>JVC</t>
         </is>
       </c>
       <c r="B576" t="inlineStr"/>
@@ -45394,7 +45394,7 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>HTP</t>
+          <t>PRT</t>
         </is>
       </c>
       <c r="B577" t="inlineStr"/>
@@ -45421,7 +45421,7 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>CMG</t>
+          <t>CHS</t>
         </is>
       </c>
       <c r="B578" t="inlineStr"/>
@@ -45448,7 +45448,7 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>BOT</t>
+          <t>HIG</t>
         </is>
       </c>
       <c r="B579" t="inlineStr"/>
@@ -45475,7 +45475,7 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>KMR</t>
+          <t>DXG</t>
         </is>
       </c>
       <c r="B580" t="inlineStr"/>
@@ -45502,7 +45502,7 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>WSS</t>
+          <t>GIL</t>
         </is>
       </c>
       <c r="B581" t="inlineStr"/>
@@ -45529,7 +45529,7 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>QTP</t>
+          <t>SHB</t>
         </is>
       </c>
       <c r="B582" t="inlineStr"/>
@@ -45556,7 +45556,7 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>DFF</t>
+          <t>IDJ</t>
         </is>
       </c>
       <c r="B583" t="inlineStr"/>
@@ -45583,7 +45583,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>TCB</t>
+          <t>SPI</t>
         </is>
       </c>
       <c r="B584" t="inlineStr"/>
@@ -45610,7 +45610,7 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>OCH</t>
+          <t>DXS</t>
         </is>
       </c>
       <c r="B585" t="inlineStr"/>
@@ -45637,7 +45637,7 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>VGC</t>
+          <t>MCM</t>
         </is>
       </c>
       <c r="B586" t="inlineStr"/>
@@ -45664,7 +45664,7 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>NCG</t>
+          <t>MCH</t>
         </is>
       </c>
       <c r="B587" t="inlineStr"/>
@@ -45691,7 +45691,7 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>FMC</t>
+          <t>CST</t>
         </is>
       </c>
       <c r="B588" t="inlineStr"/>
@@ -45718,7 +45718,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>SCG</t>
+          <t>HHP</t>
         </is>
       </c>
       <c r="B589" t="inlineStr"/>
@@ -45745,7 +45745,7 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>SBG</t>
+          <t>RYG</t>
         </is>
       </c>
       <c r="B590" t="inlineStr"/>
@@ -45772,7 +45772,7 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>THD</t>
+          <t>C32</t>
         </is>
       </c>
       <c r="B591" t="inlineStr"/>
@@ -45799,7 +45799,7 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>DHG</t>
+          <t>GPC</t>
         </is>
       </c>
       <c r="B592" t="inlineStr"/>
@@ -45826,7 +45826,7 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>GAB</t>
+          <t>PVM</t>
         </is>
       </c>
       <c r="B593" t="inlineStr"/>
@@ -45853,7 +45853,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>SSI</t>
+          <t>TCO</t>
         </is>
       </c>
       <c r="B594" t="inlineStr"/>
@@ -45880,7 +45880,7 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>DID</t>
+          <t>GVR</t>
         </is>
       </c>
       <c r="B595" t="inlineStr"/>
@@ -45907,7 +45907,7 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>ABB</t>
+          <t>SCJ</t>
         </is>
       </c>
       <c r="B596" t="inlineStr"/>
@@ -45934,7 +45934,7 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>DXP</t>
+          <t>RDP</t>
         </is>
       </c>
       <c r="B597" t="inlineStr"/>
@@ -45961,7 +45961,7 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>DTA</t>
+          <t>NVL</t>
         </is>
       </c>
       <c r="B598" t="inlineStr"/>
@@ -45988,7 +45988,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>PWA</t>
+          <t>VNB</t>
         </is>
       </c>
       <c r="B599" t="inlineStr"/>
@@ -46015,7 +46015,7 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>TIN</t>
+          <t>PGC</t>
         </is>
       </c>
       <c r="B600" t="inlineStr"/>
@@ -46042,7 +46042,7 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>TEG</t>
+          <t>LIG</t>
         </is>
       </c>
       <c r="B601" t="inlineStr"/>
@@ -46069,7 +46069,7 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>TID</t>
+          <t>SBA</t>
         </is>
       </c>
       <c r="B602" t="inlineStr"/>
@@ -46096,7 +46096,7 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>EVG</t>
+          <t>TVB</t>
         </is>
       </c>
       <c r="B603" t="inlineStr"/>
@@ -46123,7 +46123,7 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>L14</t>
+          <t>FTS</t>
         </is>
       </c>
       <c r="B604" t="inlineStr"/>
@@ -46150,7 +46150,7 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>SSN</t>
+          <t>VCI</t>
         </is>
       </c>
       <c r="B605" t="inlineStr"/>
@@ -46177,7 +46177,7 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>KSD</t>
+          <t>DVN</t>
         </is>
       </c>
       <c r="B606" t="inlineStr"/>
@@ -46204,7 +46204,7 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>YEG</t>
+          <t>TXM</t>
         </is>
       </c>
       <c r="B607" t="inlineStr"/>
@@ -46231,7 +46231,7 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>VPB</t>
+          <t>QBS</t>
         </is>
       </c>
       <c r="B608" t="inlineStr"/>
@@ -46258,7 +46258,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>RDP</t>
+          <t>ATG</t>
         </is>
       </c>
       <c r="B609" t="inlineStr"/>
@@ -46285,7 +46285,7 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>PMB</t>
+          <t>CTD</t>
         </is>
       </c>
       <c r="B610" t="inlineStr"/>
@@ -46312,7 +46312,7 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>MZG</t>
+          <t>DHM</t>
         </is>
       </c>
       <c r="B611" t="inlineStr"/>
@@ -46339,7 +46339,7 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>DRI</t>
+          <t>VCB</t>
         </is>
       </c>
       <c r="B612" t="inlineStr"/>
@@ -46366,7 +46366,7 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>HQC</t>
+          <t>HAP</t>
         </is>
       </c>
       <c r="B613" t="inlineStr"/>
@@ -46393,7 +46393,7 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>SHI</t>
+          <t>BII</t>
         </is>
       </c>
       <c r="B614" t="inlineStr"/>
@@ -46420,7 +46420,7 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>DBT</t>
+          <t>QTP</t>
         </is>
       </c>
       <c r="B615" t="inlineStr"/>
@@ -46447,7 +46447,7 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>PVI</t>
+          <t>DAH</t>
         </is>
       </c>
       <c r="B616" t="inlineStr"/>
@@ -46474,7 +46474,7 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>HVH</t>
+          <t>TTB</t>
         </is>
       </c>
       <c r="B617" t="inlineStr"/>
@@ -46501,7 +46501,7 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>LCS</t>
+          <t>TNT</t>
         </is>
       </c>
       <c r="B618" t="inlineStr"/>
@@ -46528,7 +46528,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>ACM</t>
+          <t>PLP</t>
         </is>
       </c>
       <c r="B619" t="inlineStr"/>
@@ -46555,7 +46555,7 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>DLG</t>
+          <t>PAN</t>
         </is>
       </c>
       <c r="B620" t="inlineStr"/>
@@ -46582,7 +46582,7 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>BCA</t>
+          <t>ADS</t>
         </is>
       </c>
       <c r="B621" t="inlineStr"/>
@@ -46609,7 +46609,7 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>DPG</t>
+          <t>BFC</t>
         </is>
       </c>
       <c r="B622" t="inlineStr"/>
@@ -46636,7 +46636,7 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>ILA</t>
+          <t>TCH</t>
         </is>
       </c>
       <c r="B623" t="inlineStr"/>
@@ -46663,7 +46663,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>PSP</t>
+          <t>HAG</t>
         </is>
       </c>
       <c r="B624" t="inlineStr"/>
@@ -46690,7 +46690,7 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>TNG</t>
+          <t>CTF</t>
         </is>
       </c>
       <c r="B625" t="inlineStr"/>
@@ -46717,7 +46717,7 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>TIP</t>
+          <t>PVG</t>
         </is>
       </c>
       <c r="B626" t="inlineStr"/>
@@ -46744,7 +46744,7 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>C32</t>
+          <t>TVN</t>
         </is>
       </c>
       <c r="B627" t="inlineStr"/>
@@ -46771,7 +46771,7 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>MHC</t>
+          <t>KKC</t>
         </is>
       </c>
       <c r="B628" t="inlineStr"/>
@@ -46798,7 +46798,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>VCG</t>
+          <t>NBB</t>
         </is>
       </c>
       <c r="B629" t="inlineStr"/>
@@ -46825,7 +46825,7 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>GSP</t>
+          <t>BIC</t>
         </is>
       </c>
       <c r="B630" t="inlineStr"/>
@@ -46852,7 +46852,7 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>DRH</t>
+          <t>NT2</t>
         </is>
       </c>
       <c r="B631" t="inlineStr"/>
@@ -46879,7 +46879,7 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>BVH</t>
+          <t>CTR</t>
         </is>
       </c>
       <c r="B632" t="inlineStr"/>
@@ -46906,7 +46906,7 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>SIP</t>
+          <t>TAL</t>
         </is>
       </c>
       <c r="B633" t="inlineStr"/>
@@ -46933,7 +46933,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>PVM</t>
+          <t>SBT</t>
         </is>
       </c>
       <c r="B634" t="inlineStr"/>
@@ -46960,7 +46960,7 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>KDC</t>
+          <t>HHG</t>
         </is>
       </c>
       <c r="B635" t="inlineStr"/>
@@ -46987,7 +46987,7 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>HMC</t>
+          <t>CEO</t>
         </is>
       </c>
       <c r="B636" t="inlineStr"/>
@@ -47014,7 +47014,7 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>IDI</t>
+          <t>MZG</t>
         </is>
       </c>
       <c r="B637" t="inlineStr"/>
@@ -47041,7 +47041,7 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>CMS</t>
+          <t>HSG</t>
         </is>
       </c>
       <c r="B638" t="inlineStr"/>
@@ -47068,7 +47068,7 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>PTB</t>
+          <t>PXI</t>
         </is>
       </c>
       <c r="B639" t="inlineStr"/>
@@ -47095,7 +47095,7 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>GEE</t>
+          <t>BVB</t>
         </is>
       </c>
       <c r="B640" t="inlineStr"/>
@@ -47122,7 +47122,7 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>KLB</t>
+          <t>OCB</t>
         </is>
       </c>
       <c r="B641" t="inlineStr"/>
@@ -47149,7 +47149,7 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>TDC</t>
+          <t>HVG</t>
         </is>
       </c>
       <c r="B642" t="inlineStr"/>
@@ -47176,7 +47176,7 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>ODE</t>
+          <t>KLF</t>
         </is>
       </c>
       <c r="B643" t="inlineStr"/>
@@ -47203,7 +47203,7 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>HVA</t>
+          <t>REE</t>
         </is>
       </c>
       <c r="B644" t="inlineStr"/>
@@ -47230,7 +47230,7 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>TTN</t>
+          <t>HT1</t>
         </is>
       </c>
       <c r="B645" t="inlineStr"/>
@@ -47257,7 +47257,7 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>TCI</t>
+          <t>VGG</t>
         </is>
       </c>
       <c r="B646" t="inlineStr"/>
@@ -47745,7 +47745,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MZG</t>
+          <t>TRC</t>
         </is>
       </c>
     </row>
@@ -47759,7 +47759,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>TRC</t>
+          <t>MZG</t>
         </is>
       </c>
     </row>
